--- a/HNM TAG Calculations.xlsx
+++ b/HNM TAG Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="8_{3F362DAA-50C3-4FD5-8424-31B14A6F0275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5A136D2-2D0D-445F-8DE8-6470A1DC623B}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{3F362DAA-50C3-4FD5-8424-31B14A6F0275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{942B9AF4-3674-4B2D-B220-8267192FBE44}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15975" yWindow="2610" windowWidth="19035" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GC data" sheetId="3" r:id="rId1"/>
@@ -901,7 +901,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="hh:m"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.00000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
@@ -1683,7 +1683,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="23" builtinId="30" customBuiltin="1"/>
@@ -5679,9 +5679,9 @@
   <dimension ref="A1:CA79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
       <selection activeCell="AX60" sqref="AX60:BC60"/>
-      <selection pane="topRight" activeCell="AR46" sqref="AR46:BI46"/>
+      <selection pane="topRight" activeCell="AR47" sqref="AR47:BI47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12669,6 +12669,65 @@
     <row r="47" spans="1:68" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="72"/>
       <c r="C47" s="79"/>
+      <c r="AR47" s="13">
+        <v>0.74929477294540547</v>
+      </c>
+      <c r="AS47" s="13">
+        <v>0.94573563223231416</v>
+      </c>
+      <c r="AT47" s="13">
+        <v>1.1753645061821028</v>
+      </c>
+      <c r="AU47" s="13">
+        <v>1.3049120131052692</v>
+      </c>
+      <c r="AV47" s="13">
+        <v>1.053837033905868</v>
+      </c>
+      <c r="AW47" s="30">
+        <v>1.2096818554795277</v>
+      </c>
+      <c r="AX47" s="30">
+        <v>0.81040944271805671</v>
+      </c>
+      <c r="AY47" s="30">
+        <v>1.0464592762988343</v>
+      </c>
+      <c r="AZ47" s="30">
+        <v>1.2340692571978784</v>
+      </c>
+      <c r="BA47" s="30">
+        <v>1.0061243118564276</v>
+      </c>
+      <c r="BB47" s="30">
+        <v>0.5080804673990752</v>
+      </c>
+      <c r="BC47" s="30">
+        <v>1.1658720647545138</v>
+      </c>
+      <c r="BD47" s="30">
+        <v>0.95008830792369137</v>
+      </c>
+      <c r="BE47" s="30">
+        <v>0.69653665071223736</v>
+      </c>
+      <c r="BF47" s="30">
+        <v>1.0576744041859969</v>
+      </c>
+      <c r="BG47" s="30">
+        <v>0.88355592619145185</v>
+      </c>
+      <c r="BH47" s="30">
+        <v>0.62150447428625299</v>
+      </c>
+      <c r="BI47" s="30">
+        <v>0.95149915651066508</v>
+      </c>
+      <c r="BJ47" s="30"/>
+      <c r="BK47" s="30"/>
+      <c r="BL47" s="30"/>
+      <c r="BM47" s="30"/>
+      <c r="BN47" s="30"/>
     </row>
     <row r="48" spans="1:68" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="72"/>
